--- a/raw_data/participating_experiments.xlsx
+++ b/raw_data/participating_experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paschalis/Library/CloudStorage/Dropbox/ECO4FUN _Project/Synthesis_coupling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucaes-my.sharepoint.com/personal/paschalis_chatzopoulos_uca_es/Documents/WorOptReproSciEcoEnvSci/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB432AB-9D0D-CB44-B966-D3C6B024B2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8BB432AB-9D0D-CB44-B966-D3C6B024B2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC87FE9E-971F-FF48-85FF-833E5BAF074B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="32880" windowHeight="20140" activeTab="1" xr2:uid="{6DC83F66-9E55-DB47-A121-FF4E9E75C07A}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="32880" windowHeight="20140" xr2:uid="{6DC83F66-9E55-DB47-A121-FF4E9E75C07A}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -1111,18 +1111,6 @@
     <t>email adress</t>
   </si>
   <si>
-    <t>Year of data collection of biochemistry data. If NA, the most likely is were no biochemistry data</t>
-  </si>
-  <si>
-    <t>Year of data collection of community data. If NA, the most likely is were no community data</t>
-  </si>
-  <si>
-    <t>Year of data collection of plant_elements data. If NA, the most likely is were no plant_elements data</t>
-  </si>
-  <si>
-    <t>Year of data collection of functiona_metris data. If NA, the most likely is were no functiona_metrics data</t>
-  </si>
-  <si>
     <t>personall comment on folder and data strructure</t>
   </si>
   <si>
@@ -1376,6 +1364,18 @@
   </si>
   <si>
     <t>insepction</t>
+  </si>
+  <si>
+    <t>Year of data collection of biochemistry data. If NA, then biochemistry data are missing</t>
+  </si>
+  <si>
+    <t>Year of data collection of plant_elements data. If NA, then plant_element data are missing</t>
+  </si>
+  <si>
+    <t>Year of data collection of community data. If NA, then community data are missing</t>
+  </si>
+  <si>
+    <t>Year of data collection of functiona_metris data. If NA, then functional_metric are missing</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE1298C-C4A2-1146-843F-ACE992A806A2}">
   <dimension ref="A1:B16385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2079,7 +2079,7 @@
         <v>73</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.25">
@@ -2087,7 +2087,7 @@
         <v>74</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>355</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>75</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>356</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.25">
@@ -2111,7 +2111,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -51215,7 +51215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7FB39F-2B30-D348-AB7B-6554E6F2A99D}">
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
@@ -51258,19 +51258,19 @@
         <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>22</v>
@@ -51288,7 +51288,7 @@
         <v>2</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>4</v>
@@ -51329,7 +51329,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -51382,7 +51382,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>21</v>
@@ -51438,7 +51438,7 @@
         <v>105</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>29</v>
@@ -51491,7 +51491,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>37</v>
@@ -51544,7 +51544,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>46</v>
@@ -51600,7 +51600,7 @@
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>51</v>
@@ -51650,7 +51650,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>60</v>
@@ -51706,7 +51706,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>68</v>
@@ -51756,7 +51756,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>51</v>
@@ -51809,7 +51809,7 @@
         <v>79</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>77</v>
@@ -51826,13 +51826,13 @@
         <v>11</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L12" s="36" t="s">
         <v>80</v>
@@ -51849,7 +51849,7 @@
         <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>29</v>
@@ -51899,16 +51899,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>51</v>
@@ -51961,7 +51961,7 @@
         <v>17</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>29</v>
@@ -52020,7 +52020,7 @@
         <v>105</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>29</v>
@@ -52076,7 +52076,7 @@
         <v>105</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>29</v>
@@ -52132,7 +52132,7 @@
         <v>105</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>29</v>
@@ -52188,7 +52188,7 @@
         <v>105</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>29</v>
@@ -52241,7 +52241,7 @@
         <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>109</v>
@@ -52294,7 +52294,7 @@
         <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>117</v>
@@ -52347,7 +52347,7 @@
         <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>117</v>
@@ -52400,7 +52400,7 @@
         <v>17</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>117</v>
@@ -52453,7 +52453,7 @@
         <v>17</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>60</v>
@@ -52509,10 +52509,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>133</v>
@@ -52565,10 +52565,10 @@
         <v>17</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>133</v>
@@ -52621,10 +52621,10 @@
         <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>133</v>
@@ -52677,7 +52677,7 @@
         <v>17</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>109</v>
@@ -52730,7 +52730,7 @@
         <v>17</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>29</v>
@@ -52783,7 +52783,7 @@
         <v>17</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>60</v>
@@ -52839,7 +52839,7 @@
         <v>17</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>162</v>
@@ -52892,7 +52892,7 @@
         <v>17</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>162</v>
@@ -52945,7 +52945,7 @@
         <v>17</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>155</v>
@@ -52998,7 +52998,7 @@
         <v>17</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>170</v>
@@ -53051,10 +53051,10 @@
         <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>117</v>
@@ -53107,7 +53107,7 @@
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>46</v>
@@ -53163,7 +53163,7 @@
         <v>17</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>46</v>
@@ -53219,7 +53219,7 @@
         <v>17</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>46</v>
@@ -53275,7 +53275,7 @@
         <v>17</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>46</v>
@@ -53328,10 +53328,10 @@
         <v>28</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>190</v>
@@ -53387,7 +53387,7 @@
         <v>17</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>29</v>
@@ -53443,7 +53443,7 @@
         <v>198</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>29</v>
@@ -53502,7 +53502,7 @@
         <v>206</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>205</v>
@@ -53555,7 +53555,7 @@
         <v>198</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>245</v>
@@ -53564,7 +53564,7 @@
         <v>246</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>31</v>
@@ -53579,13 +53579,13 @@
         <v>31</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>31</v>
@@ -53608,16 +53608,16 @@
         <v>33</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>46</v>
@@ -53673,7 +53673,7 @@
         <v>17</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>219</v>
@@ -53726,13 +53726,13 @@
         <v>35</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>29</v>
@@ -53785,13 +53785,13 @@
         <v>36</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>109</v>
@@ -53841,13 +53841,13 @@
         <v>37</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>46</v>
@@ -53900,13 +53900,13 @@
         <v>37</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>46</v>
@@ -53959,13 +53959,13 @@
         <v>37</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>243</v>
@@ -54015,13 +54015,13 @@
         <v>37</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>245</v>
@@ -54071,16 +54071,16 @@
         <v>38</v>
       </c>
       <c r="D53" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="F53" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="E53" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>363</v>
-      </c>
       <c r="H53" s="33" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="X53" s="34"/>
     </row>
@@ -54092,13 +54092,13 @@
         <v>39</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>245</v>
@@ -54148,13 +54148,13 @@
         <v>39</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>245</v>
@@ -54204,13 +54204,13 @@
         <v>39</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>245</v>
@@ -54251,7 +54251,7 @@
         <v>17</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>257</v>
@@ -54304,16 +54304,16 @@
         <v>41</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>31</v>
@@ -54366,19 +54366,19 @@
         <v>42</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>264</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>264</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>51</v>
@@ -54425,13 +54425,13 @@
         <v>43</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>245</v>
@@ -54481,13 +54481,13 @@
         <v>43</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>270</v>
@@ -54537,16 +54537,16 @@
         <v>44</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>276</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>275</v>
@@ -54602,7 +54602,7 @@
         <v>17</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>205</v>
@@ -54658,7 +54658,7 @@
         <v>285</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>46</v>
@@ -54667,7 +54667,7 @@
         <v>46</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L64" s="20" t="s">
         <v>282</v>
@@ -54711,13 +54711,13 @@
         <v>47</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>31</v>
@@ -54773,7 +54773,7 @@
         <v>17</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>109</v>
@@ -54823,16 +54823,16 @@
         <v>49</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>51</v>
@@ -54882,16 +54882,16 @@
         <v>49</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>51</v>
@@ -54944,7 +54944,7 @@
         <v>17</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>29</v>
@@ -55004,7 +55004,7 @@
         <v>305</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>31</v>
@@ -55060,7 +55060,7 @@
         <v>17</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>311</v>
@@ -55110,16 +55110,16 @@
         <v>53</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G72" s="33" t="s">
         <v>312</v>
       </c>
       <c r="H72" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I72" s="33" t="s">
         <v>31</v>
@@ -55176,7 +55176,7 @@
         <v>17</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>117</v>
@@ -55229,13 +55229,13 @@
         <v>55</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>60</v>
@@ -55288,16 +55288,16 @@
         <v>56</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G75" s="33" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>109</v>
@@ -55353,7 +55353,7 @@
         <v>332</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>31</v>
@@ -55409,7 +55409,7 @@
         <v>17</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>334</v>
